--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Inhba-Acvr2a.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H2">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I2">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J2">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N2">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P2">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q2">
-        <v>6.792891088466888</v>
+        <v>1.711709494400444</v>
       </c>
       <c r="R2">
-        <v>61.136019796202</v>
+        <v>15.405385449604</v>
       </c>
       <c r="S2">
-        <v>0.0295859419684139</v>
+        <v>0.006599143444859191</v>
       </c>
       <c r="T2">
-        <v>0.0295859419684139</v>
+        <v>0.006599143444859191</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H3">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I3">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J3">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N3">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O3">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P3">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q3">
-        <v>10.94893016959111</v>
+        <v>2.901556552515555</v>
       </c>
       <c r="R3">
-        <v>98.54037152632</v>
+        <v>26.11400897264</v>
       </c>
       <c r="S3">
-        <v>0.04768726723202162</v>
+        <v>0.01118635373938152</v>
       </c>
       <c r="T3">
-        <v>0.04768726723202162</v>
+        <v>0.01118635373938152</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H4">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I4">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J4">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N4">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P4">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q4">
-        <v>3.459133810684555</v>
+        <v>2.760258050716666</v>
       </c>
       <c r="R4">
-        <v>31.132204296161</v>
+        <v>24.84232245645</v>
       </c>
       <c r="S4">
-        <v>0.0150660051590772</v>
+        <v>0.01064160646482067</v>
       </c>
       <c r="T4">
-        <v>0.0150660051590772</v>
+        <v>0.01064160646482067</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.3965436666666666</v>
+        <v>0.1050873333333333</v>
       </c>
       <c r="H5">
-        <v>1.189631</v>
+        <v>0.315262</v>
       </c>
       <c r="I5">
-        <v>0.09997914073966499</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="J5">
-        <v>0.099979140739665</v>
+        <v>0.03031434174852429</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N5">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O5">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P5">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q5">
-        <v>1.754116461111333</v>
+        <v>0.4895185867737777</v>
       </c>
       <c r="R5">
-        <v>15.787048150002</v>
+        <v>4.405667280964</v>
       </c>
       <c r="S5">
-        <v>0.007639926380152272</v>
+        <v>0.001887238099462908</v>
       </c>
       <c r="T5">
-        <v>0.00763992638015227</v>
+        <v>0.001887238099462908</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I6">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J6">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N6">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P6">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q6">
-        <v>37.73584498515866</v>
+        <v>35.88146228475866</v>
       </c>
       <c r="R6">
-        <v>339.622604866428</v>
+        <v>322.9331605628279</v>
       </c>
       <c r="S6">
-        <v>0.1643557220806174</v>
+        <v>0.1383335883822775</v>
       </c>
       <c r="T6">
-        <v>0.1643557220806174</v>
+        <v>0.1383335883822775</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I7">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J7">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N7">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O7">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P7">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q7">
-        <v>60.82345885605333</v>
+        <v>60.82345885605332</v>
       </c>
       <c r="R7">
-        <v>547.41112970448</v>
+        <v>547.4111297044799</v>
       </c>
       <c r="S7">
-        <v>0.2649121413250192</v>
+        <v>0.2344923195884814</v>
       </c>
       <c r="T7">
-        <v>0.2649121413250193</v>
+        <v>0.2344923195884815</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I8">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J8">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N8">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P8">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q8">
-        <v>19.21616813267266</v>
+        <v>57.86150948334999</v>
       </c>
       <c r="R8">
-        <v>172.945513194054</v>
+        <v>520.7535853501499</v>
       </c>
       <c r="S8">
-        <v>0.0836946195403894</v>
+        <v>0.2230731337682109</v>
       </c>
       <c r="T8">
-        <v>0.0836946195403894</v>
+        <v>0.223073133768211</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>6.608633999999999</v>
       </c>
       <c r="I9">
-        <v>0.5554037754420784</v>
+        <v>0.6354599969768544</v>
       </c>
       <c r="J9">
-        <v>0.5554037754420785</v>
+        <v>0.6354599969768545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N9">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O9">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P9">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q9">
-        <v>9.744461673291999</v>
+        <v>10.26146245403867</v>
       </c>
       <c r="R9">
-        <v>87.70015505962799</v>
+        <v>92.35316208634799</v>
       </c>
       <c r="S9">
-        <v>0.04244129249605233</v>
+        <v>0.03956095523788454</v>
       </c>
       <c r="T9">
-        <v>0.04244129249605232</v>
+        <v>0.03956095523788455</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H10">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J10">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N10">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P10">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q10">
-        <v>21.96000065723533</v>
+        <v>15.74585743473022</v>
       </c>
       <c r="R10">
-        <v>197.640005915118</v>
+        <v>141.712716912572</v>
       </c>
       <c r="S10">
-        <v>0.09564518208960869</v>
+        <v>0.06070491062531805</v>
       </c>
       <c r="T10">
-        <v>0.09564518208960868</v>
+        <v>0.06070491062531805</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H11">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J11">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N11">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O11">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P11">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q11">
-        <v>35.39560852498667</v>
+        <v>26.69115055105778</v>
       </c>
       <c r="R11">
-        <v>318.5604767248801</v>
+        <v>240.22035495952</v>
       </c>
       <c r="S11">
-        <v>0.15416299276974</v>
+        <v>0.1029022341530321</v>
       </c>
       <c r="T11">
-        <v>0.1541629927697399</v>
+        <v>0.1029022341530321</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H12">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J12">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N12">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P12">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q12">
-        <v>11.18265842434433</v>
+        <v>25.39135869248333</v>
       </c>
       <c r="R12">
-        <v>100.643925819099</v>
+        <v>228.52222823235</v>
       </c>
       <c r="S12">
-        <v>0.04870525360799165</v>
+        <v>0.09789115432245764</v>
       </c>
       <c r="T12">
-        <v>0.04870525360799165</v>
+        <v>0.09789115432245765</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1.281943</v>
+        <v>0.9666886666666668</v>
       </c>
       <c r="H13">
-        <v>3.845829</v>
+        <v>2.900066</v>
       </c>
       <c r="I13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="J13">
-        <v>0.3232117176264616</v>
+        <v>0.2788588279503266</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N13">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O13">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P13">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q13">
-        <v>5.670692807702</v>
+        <v>4.503036236116889</v>
       </c>
       <c r="R13">
-        <v>51.036235269318</v>
+        <v>40.52732612505201</v>
       </c>
       <c r="S13">
-        <v>0.0246982891591213</v>
+        <v>0.01736052884951881</v>
       </c>
       <c r="T13">
-        <v>0.0246982891591213</v>
+        <v>0.01736052884951881</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H14">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J14">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.13024733333333</v>
+        <v>16.28844733333333</v>
       </c>
       <c r="N14">
-        <v>51.390742</v>
+        <v>48.865342</v>
       </c>
       <c r="O14">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="P14">
-        <v>0.2959211466465043</v>
+        <v>0.2176904746803693</v>
       </c>
       <c r="Q14">
-        <v>1.454346578435111</v>
+        <v>3.126306850476</v>
       </c>
       <c r="R14">
-        <v>13.089119205916</v>
+        <v>28.136761654284</v>
       </c>
       <c r="S14">
-        <v>0.006334300507864274</v>
+        <v>0.0120528322279146</v>
       </c>
       <c r="T14">
-        <v>0.006334300507864273</v>
+        <v>0.0120528322279146</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H15">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J15">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.61090666666667</v>
+        <v>27.61090666666666</v>
       </c>
       <c r="N15">
-        <v>82.83272000000001</v>
+        <v>82.83271999999999</v>
       </c>
       <c r="O15">
-        <v>0.4769721651858779</v>
+        <v>0.3690119294748028</v>
       </c>
       <c r="P15">
-        <v>0.4769721651858778</v>
+        <v>0.3690119294748029</v>
       </c>
       <c r="Q15">
-        <v>2.344147568728889</v>
+        <v>5.29947176016</v>
       </c>
       <c r="R15">
-        <v>21.09732811856</v>
+        <v>47.69524584144</v>
       </c>
       <c r="S15">
-        <v>0.01020976385909702</v>
+        <v>0.02043102199390779</v>
       </c>
       <c r="T15">
-        <v>0.01020976385909702</v>
+        <v>0.02043102199390779</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H16">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J16">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>8.723210333333332</v>
+        <v>26.266325</v>
       </c>
       <c r="N16">
-        <v>26.169631</v>
+        <v>78.798975</v>
       </c>
       <c r="O16">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967738</v>
       </c>
       <c r="P16">
-        <v>0.1506914847198724</v>
+        <v>0.3510419771967739</v>
       </c>
       <c r="Q16">
-        <v>0.7405947418264444</v>
+        <v>5.04140082255</v>
       </c>
       <c r="R16">
-        <v>6.665352676437999</v>
+        <v>45.37260740295</v>
       </c>
       <c r="S16">
-        <v>0.00322560641241414</v>
+        <v>0.01943608264128463</v>
       </c>
       <c r="T16">
-        <v>0.003225606412414139</v>
+        <v>0.01943608264128463</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.08489933333333333</v>
+        <v>0.191934</v>
       </c>
       <c r="H17">
-        <v>0.254698</v>
+        <v>0.575802</v>
       </c>
       <c r="I17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429468</v>
       </c>
       <c r="J17">
-        <v>0.02140536619179493</v>
+        <v>0.05536683332429467</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.423514</v>
+        <v>4.658207333333333</v>
       </c>
       <c r="N17">
-        <v>13.270542</v>
+        <v>13.974622</v>
       </c>
       <c r="O17">
-        <v>0.07641520344774541</v>
+        <v>0.06225561864805391</v>
       </c>
       <c r="P17">
-        <v>0.07641520344774538</v>
+        <v>0.06225561864805392</v>
       </c>
       <c r="Q17">
-        <v>0.3755533895906666</v>
+        <v>0.8940683663160001</v>
       </c>
       <c r="R17">
-        <v>3.379980506316</v>
+        <v>8.046615296844001</v>
       </c>
       <c r="S17">
-        <v>0.001635695412419501</v>
+        <v>0.003446896461187653</v>
       </c>
       <c r="T17">
-        <v>0.001635695412419501</v>
+        <v>0.003446896461187653</v>
       </c>
     </row>
   </sheetData>
